--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251009_201457.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251009_201457.xlsx
@@ -5185,7 +5185,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
